--- a/equipment_cyg/product/zhong_che_zhu_zhou/second_floor/second_floor_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_zhu_zhou/second_floor/second_floor_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="434">
   <si>
     <t>direction</t>
   </si>
@@ -112,7 +112,7 @@
   <si>
     <t>报警/解除报警上报给Host
 alarm_code的数据类型：BINARRY
-alarm_id的数据类型：I4
+alarm_id的数据类型：U4
 alarm_text的数据类型：ASCII</t>
   </si>
   <si>
@@ -120,33 +120,6 @@
 alarm_code=9：取消报警</t>
   </si>
   <si>
-    <t>S7F3</t>
-  </si>
-  <si>
-    <t>Host下发配方</t>
-  </si>
-  <si>
-    <t>S7F4</t>
-  </si>
-  <si>
-    <t>0: 下发成功</t>
-  </si>
-  <si>
-    <t>S7F5</t>
-  </si>
-  <si>
-    <t>Host请求设备上传配方</t>
-  </si>
-  <si>
-    <t>S7F6</t>
-  </si>
-  <si>
-    <t>回复配方内容</t>
-  </si>
-  <si>
-    <t>PPBODY为json格式</t>
-  </si>
-  <si>
     <t>S7F19</t>
   </si>
   <si>
@@ -350,10 +323,10 @@
 0:Online Remote</t>
   </si>
   <si>
-    <t>1:Manual
-2:Auto
-3:AutoRun
-4:Alarm
+    <t>1:Manual,手动模式
+2:Auto，自动模式下暂停状态
+3:AutoRun，自动模式下运行状态
+4:Alarm，报警
 5:Schedule down
 6:Engineer</t>
   </si>
@@ -1745,13 +1718,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
@@ -1768,6 +1734,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -2965,8 +2938,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3868420</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>908685</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
@@ -2985,7 +2958,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="176530" y="25521920"/>
+          <a:off x="176530" y="25693370"/>
           <a:ext cx="11807190" cy="5368290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3008,7 +2981,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2091690</xdr:colOff>
+      <xdr:colOff>3768090</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
@@ -3027,7 +3000,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="149225" y="30817820"/>
+          <a:off x="149225" y="30989270"/>
           <a:ext cx="10057765" cy="2571750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3049,8 +3022,8 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3395345</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>435610</xdr:colOff>
       <xdr:row>180</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -3069,7 +3042,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="92075" y="33519110"/>
+          <a:off x="92075" y="33690560"/>
           <a:ext cx="11418570" cy="3177540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3091,8 +3064,8 @@
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3357245</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>397510</xdr:colOff>
       <xdr:row>209</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -3111,7 +3084,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="168275" y="36955730"/>
+          <a:off x="168275" y="37127180"/>
           <a:ext cx="11304270" cy="4690110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3134,7 +3107,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2042795</xdr:colOff>
+      <xdr:colOff>3719195</xdr:colOff>
       <xdr:row>231</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -3153,7 +3126,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="275590" y="41653460"/>
+          <a:off x="275590" y="41824910"/>
           <a:ext cx="9882505" cy="3756660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3176,7 +3149,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2065020</xdr:colOff>
+      <xdr:colOff>3741420</xdr:colOff>
       <xdr:row>258</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -3195,7 +3168,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351155" y="45448220"/>
+          <a:off x="351155" y="45619670"/>
           <a:ext cx="9829165" cy="4522470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3218,7 +3191,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1965960</xdr:colOff>
+      <xdr:colOff>3642360</xdr:colOff>
       <xdr:row>289</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
@@ -3237,7 +3210,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="328295" y="49932590"/>
+          <a:off x="328295" y="50104040"/>
           <a:ext cx="9752965" cy="5303520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3260,7 +3233,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1927860</xdr:colOff>
+      <xdr:colOff>3604260</xdr:colOff>
       <xdr:row>319</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -3279,7 +3252,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274955" y="55220870"/>
+          <a:off x="274955" y="55392320"/>
           <a:ext cx="9768205" cy="5223510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3302,7 +3275,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1935480</xdr:colOff>
+      <xdr:colOff>3611880</xdr:colOff>
       <xdr:row>345</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3321,7 +3294,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="252095" y="60436760"/>
+          <a:off x="252095" y="60608210"/>
           <a:ext cx="9798685" cy="4511040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3344,7 +3317,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1874520</xdr:colOff>
+      <xdr:colOff>3550920</xdr:colOff>
       <xdr:row>376</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -3363,7 +3336,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="229235" y="65001140"/>
+          <a:off x="229235" y="65172590"/>
           <a:ext cx="9760585" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3386,7 +3359,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1889760</xdr:colOff>
+      <xdr:colOff>3566160</xdr:colOff>
       <xdr:row>407</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -3405,7 +3378,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="175895" y="70224650"/>
+          <a:off x="175895" y="70396100"/>
           <a:ext cx="9829165" cy="5246370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3427,8 +3400,8 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3144520</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
       <xdr:row>411</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -3447,7 +3420,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="198755" y="75524360"/>
+          <a:off x="198755" y="75695810"/>
           <a:ext cx="11061065" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3749,15 +3722,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.1333333333333" style="100" customWidth="1"/>
     <col min="2" max="2" width="9" style="100"/>
@@ -3770,7 +3743,7 @@
     <col min="9" max="16384" width="9" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" s="100" customFormat="1" spans="1:8">
       <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
@@ -3794,7 +3767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" s="100" customFormat="1" spans="1:8">
       <c r="A2" s="110" t="s">
         <v>4</v>
       </c>
@@ -3815,7 +3788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:8">
+    <row r="3" s="100" customFormat="1" ht="27" spans="1:8">
       <c r="A3" s="110" t="s">
         <v>4</v>
       </c>
@@ -3836,7 +3809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:8">
+    <row r="4" s="100" customFormat="1" ht="40.5" spans="1:8">
       <c r="A4" s="110" t="s">
         <v>4</v>
       </c>
@@ -3859,7 +3832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" s="100" customFormat="1" spans="1:8">
       <c r="A5" s="110"/>
       <c r="B5" s="110"/>
       <c r="C5" s="110"/>
@@ -3874,7 +3847,7 @@
       </c>
       <c r="H5" s="110"/>
     </row>
-    <row r="6" ht="54" spans="1:8">
+    <row r="6" s="100" customFormat="1" ht="54" spans="1:8">
       <c r="A6" s="110"/>
       <c r="B6" s="110"/>
       <c r="C6" s="110"/>
@@ -3891,14 +3864,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" s="100" customFormat="1" spans="1:8">
       <c r="A7" s="110" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="110" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="110" t="s">
@@ -3908,13 +3881,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="111" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="110"/>
+    </row>
+    <row r="8" s="100" customFormat="1" ht="27" spans="1:8">
       <c r="A8" s="110" t="s">
         <v>4</v>
       </c>
@@ -3930,55 +3901,11 @@
       <c r="F8" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="111" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" s="111" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="110"/>
-    </row>
-    <row r="10" ht="27" spans="1:8">
-      <c r="A10" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="111" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3920,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4014,28 +3941,28 @@
   <sheetData>
     <row r="1" s="100" customFormat="1" ht="18.75" spans="1:8">
       <c r="A1" s="92" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G1" s="92" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H1" s="92" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4043,10 +3970,10 @@
         <v>1001</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D2" s="93">
         <v>1</v>
@@ -4055,13 +3982,13 @@
         <v>501</v>
       </c>
       <c r="F2" s="93" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H2" s="93" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4069,10 +3996,10 @@
         <v>1002</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C3" s="103" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D3" s="93">
         <v>2</v>
@@ -4081,13 +4008,13 @@
         <v>502</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G3" s="93" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H3" s="93" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4095,10 +4022,10 @@
         <v>1003</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D4" s="102">
         <v>3</v>
@@ -4107,13 +4034,13 @@
         <v>503</v>
       </c>
       <c r="F4" s="93" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G4" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H4" s="93" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4125,13 +4052,13 @@
         <v>516</v>
       </c>
       <c r="F5" s="93" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G5" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H5" s="93" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4143,13 +4070,13 @@
         <v>517</v>
       </c>
       <c r="F6" s="93" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G6" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H6" s="93" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4157,10 +4084,10 @@
         <v>1004</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D7" s="104">
         <v>4</v>
@@ -4169,13 +4096,13 @@
         <v>504</v>
       </c>
       <c r="F7" s="93" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G7" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H7" s="93" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4183,10 +4110,10 @@
         <v>1005</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D8" s="102">
         <v>5</v>
@@ -4195,13 +4122,13 @@
         <v>505</v>
       </c>
       <c r="F8" s="93" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G8" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H8" s="93" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4213,13 +4140,13 @@
         <v>506</v>
       </c>
       <c r="F9" s="93" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G9" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H9" s="93" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4231,13 +4158,13 @@
         <v>507</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4249,13 +4176,13 @@
         <v>508</v>
       </c>
       <c r="F11" s="93" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G11" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H11" s="93" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4269,13 +4196,13 @@
         <v>509</v>
       </c>
       <c r="F12" s="93" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G12" s="93" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H12" s="93" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4283,10 +4210,10 @@
         <v>1006</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D13" s="102">
         <v>7</v>
@@ -4295,13 +4222,13 @@
         <v>506</v>
       </c>
       <c r="F13" s="93" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H13" s="93" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4313,13 +4240,13 @@
         <v>508</v>
       </c>
       <c r="F14" s="93" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" s="100" customFormat="1" ht="18.75" spans="1:8">
@@ -4333,13 +4260,13 @@
         <v>509</v>
       </c>
       <c r="F15" s="93" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G15" s="93" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4381,13 +4308,13 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -4395,10 +4322,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
@@ -4406,13 +4333,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="97" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
@@ -4420,10 +4347,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D4" s="99"/>
     </row>
@@ -4432,10 +4359,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D5" s="99"/>
     </row>
@@ -4444,10 +4371,10 @@
         <v>200</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D6" s="99"/>
     </row>
@@ -4465,10 +4392,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
@@ -4483,19 +4410,19 @@
   <sheetData>
     <row r="1" s="91" customFormat="1" spans="1:5">
       <c r="A1" s="92" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" s="91" customFormat="1" ht="37.5" spans="1:5">
@@ -4503,16 +4430,16 @@
         <v>501</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" s="91" customFormat="1" ht="112.5" spans="1:5">
@@ -4520,16 +4447,16 @@
         <v>502</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4537,13 +4464,13 @@
         <v>503</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E4" s="94"/>
     </row>
@@ -4552,13 +4479,13 @@
         <v>504</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E5" s="94"/>
     </row>
@@ -4567,13 +4494,13 @@
         <v>505</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D6" s="93" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E6" s="94"/>
     </row>
@@ -4582,13 +4509,13 @@
         <v>506</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E7" s="94"/>
     </row>
@@ -4597,13 +4524,13 @@
         <v>507</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E8" s="94"/>
     </row>
@@ -4612,16 +4539,16 @@
         <v>508</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4629,13 +4556,13 @@
         <v>509</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E10" s="94"/>
     </row>
@@ -4644,13 +4571,13 @@
         <v>511</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E11" s="94"/>
     </row>
@@ -4659,13 +4586,13 @@
         <v>512</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D12" s="93" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E12" s="94"/>
     </row>
@@ -4674,13 +4601,13 @@
         <v>513</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D13" s="93" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E13" s="94"/>
     </row>
@@ -4689,13 +4616,13 @@
         <v>514</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C14" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D14" s="93" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E14" s="94"/>
     </row>
@@ -4704,16 +4631,16 @@
         <v>516</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E15" s="94" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4721,13 +4648,13 @@
         <v>517</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E16" s="94"/>
     </row>
@@ -4736,13 +4663,13 @@
         <v>523</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E17" s="94"/>
     </row>
@@ -4751,13 +4678,13 @@
         <v>524</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D18" s="93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E18" s="94"/>
     </row>
@@ -4766,16 +4693,16 @@
         <v>525</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E19" s="94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" ht="37.5" spans="1:5">
@@ -4783,16 +4710,16 @@
         <v>526</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C20" s="93" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E20" s="94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4800,13 +4727,13 @@
         <v>529</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E21" s="94"/>
     </row>
@@ -4825,7 +4752,7 @@
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -4837,10 +4764,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="86" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C1" s="87" t="s">
         <v>2</v>
@@ -4848,24 +4775,24 @@
     </row>
     <row r="2" ht="40.5" spans="1:3">
       <c r="A2" s="88" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4881,14 +4808,14 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A418" sqref="A418"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="106.5" customWidth="1"/>
+    <col min="1" max="1" width="84.5" customWidth="1"/>
     <col min="2" max="2" width="54.8916666666667" customWidth="1"/>
     <col min="3" max="3" width="5.95" customWidth="1"/>
     <col min="4" max="4" width="14.325" customWidth="1"/>
@@ -4897,24 +4824,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="77" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A2" s="78" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -4923,24 +4850,24 @@
     </row>
     <row r="3" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A3" s="81" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A4" s="78" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -4949,24 +4876,24 @@
     </row>
     <row r="5" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A5" s="79" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A6" s="78" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -4975,24 +4902,24 @@
     </row>
     <row r="7" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A7" s="79" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A8" s="78" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -5001,24 +4928,24 @@
     </row>
     <row r="9" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A9" s="79" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A10" s="78" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
@@ -5027,143 +4954,143 @@
     </row>
     <row r="11" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A11" s="81" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A12" s="81" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A13" s="81" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A14" s="81" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A15" s="79" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A16" s="79" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A17" s="79" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A18" s="79" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A19" s="78" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B19" s="79"/>
       <c r="C19" s="79"/>
@@ -5172,75 +5099,75 @@
     </row>
     <row r="20" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A20" s="79" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A21" s="79" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A22" s="79" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E22" s="80" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A23" s="81" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A24" s="78" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B24" s="79"/>
       <c r="C24" s="79"/>
@@ -5249,75 +5176,75 @@
     </row>
     <row r="25" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A25" s="79" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E25" s="80" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A26" s="79" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A27" s="79" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A28" s="81" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A29" s="78" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
@@ -5326,517 +5253,517 @@
     </row>
     <row r="30" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A30" s="79" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A31" s="79" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A32" s="79" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A33" s="79" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A34" s="79" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C34" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A35" s="79" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C35" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A36" s="79" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C36" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A37" s="79" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C37" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A38" s="79" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C38" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E38" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A39" s="79" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A40" s="79" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E40" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A41" s="79" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C41" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A42" s="79" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B42" s="79" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C42" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E42" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A43" s="79" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C43" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E43" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A44" s="79" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B44" s="79" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C44" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E44" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A45" s="79" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B45" s="79" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C45" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D45" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E45" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A46" s="79" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B46" s="79" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C46" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E46" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A47" s="79" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B47" s="79" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C47" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D47" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E47" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A48" s="79" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B48" s="79" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C48" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A49" s="79" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C49" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E49" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A50" s="79" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B50" s="79" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C50" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E50" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A51" s="79" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B51" s="79" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E51" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A52" s="79" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B52" s="79" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E52" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A53" s="79" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C53" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E53" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A54" s="79" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C54" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D54" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E54" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A55" s="79" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D55" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E55" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A56" s="79" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C56" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D56" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E56" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A57" s="79" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C57" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D57" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E57" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A58" s="79" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D58" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E58" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A59" s="81" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B59" s="81" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C59" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D59" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E59" s="82" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A60" s="78" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B60" s="79"/>
       <c r="C60" s="79"/>
@@ -5845,376 +5772,376 @@
     </row>
     <row r="61" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A61" s="79" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D61" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A62" s="79" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C62" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D62" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E62" s="80" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A63" s="79" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C63" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D63" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E63" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A64" s="79" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C64" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D64" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E64" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A65" s="79" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C65" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D65" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E65" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A66" s="79" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C66" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D66" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E66" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A67" s="79" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B67" s="79" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C67" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D67" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E67" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A68" s="79" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B68" s="79" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D68" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E68" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A69" s="79" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B69" s="79" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C69" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D69" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E69" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A70" s="79" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B70" s="79" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C70" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D70" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E70" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A71" s="79" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B71" s="79" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C71" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D71" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E71" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A72" s="79" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B72" s="79" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C72" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D72" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E72" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A73" s="79" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B73" s="79" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C73" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D73" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E73" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A74" s="79" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B74" s="79" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C74" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D74" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E74" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A75" s="79" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C75" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D75" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E75" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A76" s="79" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B76" s="79" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C76" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D76" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E76" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A77" s="79" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B77" s="79" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C77" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D77" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E77" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A78" s="79" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B78" s="79" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C78" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D78" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E78" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A79" s="79" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B79" s="79" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C79" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D79" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E79" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A80" s="79" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B80" s="79" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C80" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D80" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E80" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A81" s="79" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B81" s="79" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C81" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D81" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E81" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" s="76" customFormat="1" ht="16" customHeight="1" spans="1:9">
       <c r="A82" s="79" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B82" s="79" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C82" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D82" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E82" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I82" s="76">
         <f>SUM(B79)</f>
@@ -6223,109 +6150,109 @@
     </row>
     <row r="83" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A83" s="79" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B83" s="79" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C83" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D83" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E83" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A84" s="79" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B84" s="79" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C84" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D84" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E84" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A85" s="79" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B85" s="79" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C85" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D85" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E85" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A86" s="79" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B86" s="79" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C86" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D86" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E86" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A87" s="79" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B87" s="79" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C87" s="79" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D87" s="79" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E87" s="80" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A88" s="81" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B88" s="81" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C88" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D88" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E88" s="82" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A89" s="78" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B89" s="79"/>
       <c r="C89" s="79"/>
@@ -6334,19 +6261,19 @@
     </row>
     <row r="90" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A90" s="81" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B90" s="81" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C90" s="81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D90" s="81" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E90" s="82" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" customFormat="1" spans="4:9">
@@ -6357,21 +6284,21 @@
       <c r="H91" s="83"/>
       <c r="I91" s="84"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" ht="27" spans="1:9">
       <c r="A92" s="84" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B92" s="83" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C92" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D92" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E92" s="83" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F92" s="83"/>
       <c r="G92" s="84"/>
@@ -6380,19 +6307,19 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B93" s="83" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C93" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D93" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E93" s="83" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F93" s="83"/>
       <c r="G93" s="84"/>
@@ -6401,19 +6328,19 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B94" s="83" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C94" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D94" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E94" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F94" s="83"/>
       <c r="G94" s="84"/>
@@ -6422,19 +6349,19 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B95" s="83" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C95" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D95" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E95" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F95" s="83"/>
       <c r="G95" s="84"/>
@@ -6443,19 +6370,19 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B96" s="83" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C96" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D96" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E96" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F96" s="83"/>
       <c r="G96" s="84"/>
@@ -6464,19 +6391,19 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B97" s="83" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C97" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D97" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E97" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F97" s="83"/>
       <c r="G97" s="84"/>
@@ -6485,19 +6412,19 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B98" s="83" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C98" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D98" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E98" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F98" s="83"/>
       <c r="G98" s="84"/>
@@ -6506,19 +6433,19 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B99" s="83" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C99" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D99" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E99" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F99" s="83"/>
       <c r="G99" s="84"/>
@@ -6527,19 +6454,19 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B100" s="83" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C100" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D100" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E100" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F100" s="83"/>
       <c r="G100" s="84"/>
@@ -6548,19 +6475,19 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B101" s="83" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C101" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D101" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E101" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F101" s="83"/>
       <c r="G101" s="84"/>
@@ -6569,19 +6496,19 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B102" s="83" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C102" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D102" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E102" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F102" s="83"/>
       <c r="G102" s="84"/>
@@ -6590,19 +6517,19 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B103" s="83" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C103" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D103" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E103" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F103" s="83"/>
       <c r="G103" s="84"/>
@@ -6611,19 +6538,19 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B104" s="83" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C104" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D104" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E104" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F104" s="83"/>
       <c r="G104" s="84"/>
@@ -6632,19 +6559,19 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B105" s="83" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C105" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D105" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E105" s="83" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F105" s="83"/>
       <c r="G105" s="84"/>
@@ -6653,19 +6580,19 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B106" s="83" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C106" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D106" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E106" s="83" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F106" s="83"/>
       <c r="G106" s="84"/>
@@ -6674,19 +6601,19 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B107" s="83" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C107" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D107" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E107" s="83" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F107" s="83"/>
       <c r="G107" s="84"/>
@@ -6695,19 +6622,19 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B108" s="83" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C108" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D108" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E108" s="83" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F108" s="83"/>
       <c r="G108" s="84"/>
@@ -6716,19 +6643,19 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B109" s="83" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C109" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D109" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E109" s="83" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F109" s="83"/>
       <c r="G109" s="84"/>
@@ -6737,19 +6664,19 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B110" s="83" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C110" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D110" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E110" s="83" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F110" s="83"/>
       <c r="G110" s="84"/>
@@ -6758,19 +6685,19 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B111" s="83" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C111" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D111" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E111" s="83" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F111" s="83"/>
       <c r="G111" s="84"/>
@@ -6779,19 +6706,19 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B112" s="83" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C112" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D112" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E112" s="83" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F112" s="83"/>
       <c r="G112" s="84"/>
@@ -6800,19 +6727,19 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B113" s="83" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C113" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D113" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E113" s="83" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F113" s="83"/>
       <c r="G113" s="84"/>
@@ -6821,19 +6748,19 @@
     </row>
     <row r="114" ht="24" spans="1:9">
       <c r="A114" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B114" s="83" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C114" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D114" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E114" s="83" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F114" s="83"/>
       <c r="G114" s="84"/>
@@ -6842,19 +6769,19 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B115" s="83" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C115" s="85" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D115" s="85" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E115" s="83" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -6885,41 +6812,41 @@
   <sheetData>
     <row r="1" ht="21" spans="1:5">
       <c r="A1" s="74" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:5">
       <c r="A2" s="74" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:5">
       <c r="A3" s="74" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B3" s="14">
         <v>5</v>
@@ -6936,44 +6863,44 @@
     </row>
     <row r="4" ht="21" spans="1:6">
       <c r="A4" s="74" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" ht="21" spans="1:5">
       <c r="A5" s="74" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>339</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:5">
       <c r="A6" s="74" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -6990,22 +6917,22 @@
     </row>
     <row r="7" ht="21" spans="1:5">
       <c r="A7" s="74" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="75" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:5">
       <c r="A8" s="74" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B8" s="75">
         <v>0</v>
@@ -7022,7 +6949,7 @@
     </row>
     <row r="9" ht="21" spans="1:5">
       <c r="A9" s="74" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B9" s="75">
         <v>0</v>
@@ -7065,13 +6992,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
@@ -7084,16 +7011,16 @@
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G2" s="63"/>
     </row>
@@ -7102,23 +7029,23 @@
         <v>4000</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="67"/>
       <c r="F3" s="64"/>
       <c r="G3" s="67" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="64"/>
       <c r="B4" s="68"/>
       <c r="C4" s="66" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="67"/>
@@ -7130,16 +7057,16 @@
         <v>4001</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="67"/>
       <c r="F5" s="64"/>
       <c r="G5" s="67" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7147,23 +7074,23 @@
         <v>4002</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="67"/>
       <c r="F6" s="64"/>
       <c r="G6" s="69" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71"/>
       <c r="B7" s="68"/>
       <c r="C7" s="66" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="67"/>
@@ -7174,10 +7101,10 @@
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="66" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
@@ -7187,7 +7114,7 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="66" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -7199,13 +7126,13 @@
         <v>4003</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -7215,10 +7142,10 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="66" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -7229,10 +7156,10 @@
         <v>4004</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -7243,7 +7170,7 @@
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="66" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -7255,10 +7182,10 @@
         <v>4005</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -7269,7 +7196,7 @@
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="66" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -7281,10 +7208,10 @@
         <v>4006</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -7295,7 +7222,7 @@
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="66" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -7307,10 +7234,10 @@
         <v>4007</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -7321,7 +7248,7 @@
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="66" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -7333,10 +7260,10 @@
         <v>4008</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
@@ -7347,7 +7274,7 @@
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="66" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>
@@ -7412,27 +7339,27 @@
   <sheetData>
     <row r="1" ht="21.75" spans="4:4">
       <c r="D1" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="4:9">
       <c r="D2" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="4:9">
@@ -7440,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -7449,10 +7376,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="4:9">
@@ -7461,7 +7388,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="I4" s="41"/>
     </row>
@@ -7471,7 +7398,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I5" s="41"/>
     </row>
@@ -7481,7 +7408,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -7491,7 +7418,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -7500,7 +7427,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -7509,16 +7436,16 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M8" s="44"/>
     </row>
@@ -7528,17 +7455,17 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="I9" s="41"/>
       <c r="K9" s="14">
         <v>1</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:13">
@@ -7547,13 +7474,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="I10" s="41"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="45" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:13">
@@ -7562,13 +7489,13 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I11" s="42"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="45" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:13">
@@ -7576,7 +7503,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F12" s="12">
         <v>3</v>
@@ -7585,15 +7512,15 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="45" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:13">
@@ -7601,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
@@ -7610,15 +7537,15 @@
         <v>4</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="46" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:13">
@@ -7629,19 +7556,19 @@
         <v>5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="K14" s="14">
         <v>2</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:13">
@@ -7649,7 +7576,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F15" s="15">
         <v>5</v>
@@ -7658,15 +7585,15 @@
         <v>4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="45" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:13">
@@ -7677,15 +7604,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="45" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:13">
@@ -7696,15 +7623,15 @@
         <v>6</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="46" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:13">
@@ -7712,7 +7639,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F18" s="15">
         <v>6</v>
@@ -7721,19 +7648,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K18" s="11">
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:13">
@@ -7741,7 +7668,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -7751,10 +7678,10 @@
         <v>4</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:9">
@@ -7762,7 +7689,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F20" s="15">
         <v>8</v>
@@ -7771,10 +7698,10 @@
         <v>8</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:9">
@@ -7782,7 +7709,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -7794,7 +7721,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F22" s="16">
         <v>10</v>
@@ -7803,10 +7730,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:9">
@@ -7833,16 +7760,16 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="K25" s="47" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L25" s="48" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" ht="32.25" spans="4:14">
@@ -7853,40 +7780,40 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="K26" s="49" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="50" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:14">
       <c r="D27" s="11"/>
       <c r="E27" s="16" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="K27" s="49" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="50" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:9">
       <c r="D28" s="23"/>
       <c r="E28" s="16" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -7896,45 +7823,45 @@
     <row r="37" ht="14.25"/>
     <row r="38" ht="16.5" spans="4:10">
       <c r="D38" s="24" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:10">
       <c r="D39" s="27" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="H39" s="11">
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="J39" s="12">
         <v>2</v>
@@ -7944,14 +7871,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
       <c r="F40" s="29" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="11">
         <v>2</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="J40" s="12">
         <v>2</v>
@@ -7961,7 +7888,7 @@
       <c r="D41" s="30"/>
       <c r="E41" s="31"/>
       <c r="F41" s="32" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G41" s="31"/>
     </row>
@@ -7969,7 +7896,7 @@
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="33" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G42" s="31"/>
     </row>
@@ -7977,7 +7904,7 @@
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
       <c r="F43" s="33" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G43" s="31"/>
     </row>
@@ -7985,7 +7912,7 @@
       <c r="D44" s="30"/>
       <c r="E44" s="31"/>
       <c r="F44" s="33" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G44" s="31"/>
     </row>
@@ -7993,7 +7920,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="31"/>
       <c r="F45" s="33" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -8001,7 +7928,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="31"/>
       <c r="F46" s="33" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G46" s="31"/>
     </row>
@@ -8009,7 +7936,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="33" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G47" s="31"/>
     </row>
@@ -8017,7 +7944,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
       <c r="F48" s="33" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G48" s="31"/>
     </row>
@@ -8025,7 +7952,7 @@
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
       <c r="F49" s="33" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="G49" s="31"/>
     </row>
@@ -8033,7 +7960,7 @@
       <c r="D50" s="30"/>
       <c r="E50" s="31"/>
       <c r="F50" s="33" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G50" s="31"/>
     </row>
@@ -8041,7 +7968,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="31"/>
       <c r="F51" s="33" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G51" s="31"/>
     </row>
@@ -8049,23 +7976,23 @@
       <c r="D52" s="34"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G52" s="35"/>
     </row>
     <row r="53" ht="21" spans="4:4">
       <c r="D53" s="37" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="4:4">
       <c r="D54" s="38" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="4:4">
       <c r="D55" s="39" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/equipment_cyg/product/zhong_che_zhu_zhou/second_floor/second_floor_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_zhu_zhou/second_floor/second_floor_manual.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">secs指令!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">plc!$D$1:$D$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">plc!$D$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="362">
   <si>
     <t>direction</t>
   </si>
@@ -184,151 +184,156 @@
     <t>当前控制状态</t>
   </si>
   <si>
-    <t>machine_state_change</t>
-  </si>
-  <si>
-    <t>运行状态变化</t>
-  </si>
-  <si>
-    <t>currnet_machine_state</t>
-  </si>
-  <si>
-    <t>当前运行状态</t>
-  </si>
-  <si>
-    <t>pp_select</t>
-  </si>
-  <si>
-    <t>配方切换</t>
-  </si>
-  <si>
-    <t>current_recipe_id_name</t>
-  </si>
-  <si>
-    <t>ASCII</t>
-  </si>
-  <si>
-    <t>当前配方名称</t>
-  </si>
-  <si>
-    <t>pp_select_state</t>
-  </si>
-  <si>
-    <t>UINT_4</t>
-  </si>
-  <si>
-    <t>切换结果</t>
-  </si>
-  <si>
-    <t>pp_select_recipe_id_name</t>
-  </si>
-  <si>
-    <t>要切换的配方id_name</t>
-  </si>
-  <si>
-    <t>track_in</t>
-  </si>
-  <si>
-    <t>进站</t>
-  </si>
-  <si>
-    <t>track_in_carrier_sn</t>
-  </si>
-  <si>
-    <t>进站托盘码</t>
-  </si>
-  <si>
-    <t>track_out_ok</t>
-  </si>
-  <si>
-    <t>出站OK</t>
-  </si>
-  <si>
-    <t>track_out_carrier_sn</t>
-  </si>
-  <si>
-    <t>出站托盘码</t>
-  </si>
-  <si>
-    <t>track_out_product_sn</t>
-  </si>
-  <si>
-    <t>出站产品码</t>
-  </si>
-  <si>
-    <t>track_out_product_point</t>
-  </si>
-  <si>
-    <t>出站产品穴位</t>
-  </si>
-  <si>
-    <t>track_out_product_state</t>
-  </si>
-  <si>
-    <t>产品状态</t>
-  </si>
-  <si>
-    <t>track_out_pins_state</t>
-  </si>
-  <si>
-    <t>ARRAY</t>
-  </si>
-  <si>
-    <t>pins状态</t>
-  </si>
-  <si>
-    <t>track_out_ng</t>
-  </si>
-  <si>
-    <t>出站NG</t>
-  </si>
-  <si>
-    <t>VID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Control Status</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Process Status</t>
-  </si>
-  <si>
-    <t>当前仅为样例，需根据设备实际参数定义</t>
-  </si>
-  <si>
-    <t>Recipe Number</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>LotNumber</t>
-  </si>
-  <si>
-    <t>FrameSN</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
     <t>1:Online Local
 0:Online Remote</t>
   </si>
   <si>
-    <t>1:Manual,手动模式
-2:Auto，自动模式下暂停状态
-3:AutoRun，自动模式下运行状态
-4:Alarm，报警
+    <t>machine_state_change</t>
+  </si>
+  <si>
+    <t>运行状态变化</t>
+  </si>
+  <si>
+    <t>currnet_machine_state</t>
+  </si>
+  <si>
+    <t>当前运行状态</t>
+  </si>
+  <si>
+    <t>1:Manual
+2:Auto
+3:AutoRun
+4:Alarm
 5:Schedule down
 6:Engineer</t>
+  </si>
+  <si>
+    <t>pp_select</t>
+  </si>
+  <si>
+    <t>配方切换</t>
+  </si>
+  <si>
+    <t>current_recipe_name</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>当前配方名称</t>
+  </si>
+  <si>
+    <t>pp_select_state</t>
+  </si>
+  <si>
+    <t>UINT_4</t>
+  </si>
+  <si>
+    <t>切换结果</t>
+  </si>
+  <si>
+    <t>0：切换失败,plc不允许切换
+2：切换成功
+5：切换失败，程序出现异常</t>
+  </si>
+  <si>
+    <t>pp_select_recipe_name</t>
+  </si>
+  <si>
+    <t>要切换的配方id_name</t>
+  </si>
+  <si>
+    <t>track_in</t>
+  </si>
+  <si>
+    <t>进站</t>
+  </si>
+  <si>
+    <t>track_in_carrier_sn</t>
+  </si>
+  <si>
+    <t>进站托盘码</t>
+  </si>
+  <si>
+    <t>track_out_ok</t>
+  </si>
+  <si>
+    <t>出站OK</t>
+  </si>
+  <si>
+    <t>track_out_carrier_sn</t>
+  </si>
+  <si>
+    <t>出站托盘码</t>
+  </si>
+  <si>
+    <t>track_out_product_sn</t>
+  </si>
+  <si>
+    <t>出站产品码</t>
+  </si>
+  <si>
+    <t>track_out_product_point</t>
+  </si>
+  <si>
+    <t>出站产品穴位</t>
+  </si>
+  <si>
+    <t>track_out_product_state</t>
+  </si>
+  <si>
+    <t>产品状态</t>
+  </si>
+  <si>
+    <t>track_out_pins_state</t>
+  </si>
+  <si>
+    <t>ARRAY</t>
+  </si>
+  <si>
+    <t>pins状态</t>
+  </si>
+  <si>
+    <t>track_out_ng</t>
+  </si>
+  <si>
+    <t>出站NG</t>
+  </si>
+  <si>
+    <t>VID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Control Status</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Process Status</t>
+  </si>
+  <si>
+    <t>当前仅为样例，需根据设备实际参数定义</t>
+  </si>
+  <si>
+    <t>Recipe Number</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>LotNumber</t>
+  </si>
+  <si>
+    <t>FrameSN</t>
+  </si>
+  <si>
+    <t>values</t>
   </si>
   <si>
     <t>1：OK
@@ -340,63 +345,15 @@
     <t>出站pins状态</t>
   </si>
   <si>
-    <t>upload_recipe_id</t>
-  </si>
-  <si>
-    <t>plc上传配方id</t>
-  </si>
-  <si>
-    <t>upload_recipe_name</t>
-  </si>
-  <si>
-    <t>plc上传配方name</t>
-  </si>
-  <si>
     <t>pp_select_recipe_id</t>
   </si>
   <si>
     <t>要切换的配方id</t>
   </si>
   <si>
-    <t>pp_select_recipe_name</t>
-  </si>
-  <si>
     <t>要切换的配方name</t>
   </si>
   <si>
-    <t>0：切换失败,plc不允许切换
-2：切换成功
-5：切换失败，程序出现异常</t>
-  </si>
-  <si>
-    <t>track_out_product1_sn</t>
-  </si>
-  <si>
-    <t>出站产品1sn</t>
-  </si>
-  <si>
-    <t>track_out_product2_sn</t>
-  </si>
-  <si>
-    <t>出站产品2sn</t>
-  </si>
-  <si>
-    <t>track_out_product1_state</t>
-  </si>
-  <si>
-    <t>出站产品1状态</t>
-  </si>
-  <si>
-    <t>1：OK
-2：NG</t>
-  </si>
-  <si>
-    <t>track_out_product2_state</t>
-  </si>
-  <si>
-    <t>出站产品2状态</t>
-  </si>
-  <si>
     <t>track_in_reply_flag</t>
   </si>
   <si>
@@ -412,30 +369,10 @@
     <t>param_values</t>
   </si>
   <si>
-    <t>["recipe_id_name","recipe_id_name_value"]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">切换配方
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>只有当前502:currnet_machine_state运行状态是1:手动模式才能切换配方</t>
-    </r>
+    <t>["recipe_name","recipe_name_value"]</t>
+  </si>
+  <si>
+    <t>切换配方</t>
   </si>
   <si>
     <t>track_in_reply</t>
@@ -519,12 +456,6 @@
     <t>切换配方命令</t>
   </si>
   <si>
-    <t>Application.gvl_OPMODE01_MES.mes2plc.changeOver.cmdID</t>
-  </si>
-  <si>
-    <t>1.询问PLC是否可以切换配方。2切换配方。</t>
-  </si>
-  <si>
     <t>Application.gvl_OPMODE01_MES.mes2plc.changeOver.recipeName</t>
   </si>
   <si>
@@ -540,34 +471,7 @@
     <t>Application.gvl_OPMODE01_MES.plc2mes.changeOver.done</t>
   </si>
   <si>
-    <t>切换配方命令响应</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.plc2mes.changeOver.cmdID</t>
-  </si>
-  <si>
-    <t>0：不允许，1：允许切配方；2：切配方完成</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.plc2mes.changeOver.recipeName</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.plc2mes.changeOver.recipeID</t>
-  </si>
-  <si>
-    <t>配方上传</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.plc2mes.changeOver.recipe_UpLoad_Request</t>
-  </si>
-  <si>
-    <t>配方上传请求</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_MES.mes2plc.changeOver.recipe_UpLoad_Response</t>
-  </si>
-  <si>
-    <t>配方上传响应</t>
+    <t>切换配方命令响应，响应了代表切换成功</t>
   </si>
   <si>
     <t>Application.gvl_OPMODE01_MES.plc2mes.geneal.request_InterLock[1]</t>
@@ -588,6 +492,21 @@
     <t>进站回复状态</t>
   </si>
   <si>
+    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_pallet_mapping[0].status</t>
+  </si>
+  <si>
+    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_pallet_mapping[1].status</t>
+  </si>
+  <si>
+    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_pallet_mapping[2].status</t>
+  </si>
+  <si>
+    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_pallet_mapping[3].status</t>
+  </si>
+  <si>
+    <t>Application.gvl_OPMODE01_MES.mes2plc.Interlock.st_1_pallet_mapping[4].status</t>
+  </si>
+  <si>
     <t>Application.gvl_OPMODE01_MES.mes2plc.geneal.response_InterLock[1]</t>
   </si>
   <si>
@@ -861,169 +780,13 @@
     <t>Application.gvl_OPMODE01_MES.mes2plc.geneal.response_partDone[2]</t>
   </si>
   <si>
-    <t>设备停止</t>
-  </si>
-  <si>
-    <t>设备停止，1：run，2：stop</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Direction_selection.Direction_selection[0..50]</t>
-  </si>
-  <si>
-    <t>拨针方向选择--0：X；1：Y；</t>
-  </si>
-  <si>
-    <t>ARRAY[0..50] OF bool</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Number_products</t>
-  </si>
-  <si>
-    <t>产品托盘穴位数</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.X_Changeovers1_spacing</t>
-  </si>
-  <si>
-    <t>X方向压头1换型间距</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Y_Changeovers1_spacing</t>
-  </si>
-  <si>
-    <t>Y方向压头1换型间距</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.X_Changeovers2_spacing</t>
-  </si>
-  <si>
-    <t>X方向压头2换型间距</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Y_Changeovers2_spacing</t>
-  </si>
-  <si>
-    <t>Y方向压头2换型间距</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.X_Direction_distance_3D</t>
-  </si>
-  <si>
-    <t>X方向距离_3D</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Y_Direction_distance_3D</t>
-  </si>
-  <si>
-    <t>Y方向距离_3D</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.channel_3D</t>
-  </si>
-  <si>
-    <t>扫描通道数_3D</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.X_Direction_distance_Tray</t>
-  </si>
-  <si>
-    <t>X放向间距_载具</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Y_Direction_distance_Tray</t>
-  </si>
-  <si>
-    <t>Y放向间距_载具</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.X_Direction_distance_NG</t>
-  </si>
-  <si>
-    <t>X放向间距_NG穴位</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Y_Direction_distance_NG</t>
-  </si>
-  <si>
-    <t>Y放向间距_NG穴位</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.PIN_Quantity</t>
-  </si>
-  <si>
-    <t>拨针次数设置</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Detect_displacement</t>
-  </si>
-  <si>
-    <t>拨针位移限制</t>
-  </si>
-  <si>
-    <t>lreal</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.X_Fixed_displacement</t>
-  </si>
-  <si>
-    <t>拨针X方向固定位移</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.X_Displacement</t>
-  </si>
-  <si>
-    <t>拨针X方向返回位移</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.X_Fixed</t>
-  </si>
-  <si>
-    <t>拨针X方向离针位移</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Y_Fixed_displacement</t>
-  </si>
-  <si>
-    <t>拨针Y方向固定位移</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Y_Displacement</t>
-  </si>
-  <si>
-    <t>拨针Y方向返回位移</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Y_Fixed</t>
-  </si>
-  <si>
-    <t>拨针Y方向离针位移</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Z_Distance</t>
-  </si>
-  <si>
-    <t>Z轴下降距离</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.XYoffset</t>
-  </si>
-  <si>
-    <t>拨针XY位置偏移</t>
-  </si>
-  <si>
-    <t>ARRAY [0..50] OF CAMERA_OFFSET_DUT</t>
-  </si>
-  <si>
-    <t>Application.gvl_OPMODE01_RECIPE.ActiveParameters.Speed_Pin</t>
-  </si>
-  <si>
-    <t>拨针速度</t>
-  </si>
-  <si>
-    <t>SPEED_DUT</t>
+    <t>弹框</t>
+  </si>
+  <si>
+    <t>Application.gvl_OPMODE01_MES.Display</t>
+  </si>
+  <si>
+    <t>弹框显示</t>
   </si>
   <si>
     <t>功能</t>
@@ -1455,7 +1218,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1554,12 +1317,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1734,13 +1491,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -2397,137 +2147,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2769,21 +2519,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2802,13 +2537,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2829,25 +2564,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2933,19 +2668,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>176530</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>328295</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>908685</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3547110</xdr:colOff>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2958,259 +2693,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="176530" y="25693370"/>
-          <a:ext cx="11807190" cy="5368290"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3768090</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="149225" y="30989270"/>
-          <a:ext cx="10057765" cy="2571750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>435610</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="92075" y="33690560"/>
-          <a:ext cx="11418570" cy="3177540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>397510</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="168275" y="37127180"/>
-          <a:ext cx="11304270" cy="4690110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>275590</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3719195</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="275590" y="41824910"/>
-          <a:ext cx="9882505" cy="3756660"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>351155</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3741420</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="351155" y="45619670"/>
-          <a:ext cx="9829165" cy="4522470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>328295</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3642360</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="328295" y="50104040"/>
+          <a:off x="328295" y="40445690"/>
           <a:ext cx="9752965" cy="5303520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3228,13 +2711,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>274955</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3604260</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:colOff>3509010</xdr:colOff>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3245,14 +2728,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="274955" y="55392320"/>
+          <a:off x="274955" y="45733970"/>
           <a:ext cx="9768205" cy="5223510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3270,13 +2753,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>252095</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3611880</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:colOff>3516630</xdr:colOff>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3287,14 +2770,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="252095" y="60608210"/>
+          <a:off x="252095" y="50949860"/>
           <a:ext cx="9798685" cy="4511040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3312,13 +2795,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>229235</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3550920</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:colOff>3455670</xdr:colOff>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3329,14 +2812,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="229235" y="65172590"/>
+          <a:off x="229235" y="55514240"/>
           <a:ext cx="9760585" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3354,13 +2837,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>175895</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3566160</xdr:colOff>
-      <xdr:row>407</xdr:row>
+      <xdr:colOff>3470910</xdr:colOff>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3371,14 +2854,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="175895" y="70396100"/>
+          <a:off x="175895" y="60737750"/>
           <a:ext cx="9829165" cy="5246370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3396,13 +2879,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>198755</xdr:colOff>
-      <xdr:row>407</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>184785</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>358</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3413,14 +2896,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="198755" y="75695810"/>
+          <a:off x="198755" y="66037460"/>
           <a:ext cx="11061065" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3727,184 +3210,182 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.1333333333333" style="100" customWidth="1"/>
-    <col min="2" max="2" width="9" style="100"/>
-    <col min="3" max="3" width="27.7333333333333" style="100" customWidth="1"/>
-    <col min="4" max="4" width="4.75833333333333" style="100" customWidth="1"/>
-    <col min="5" max="5" width="17.1333333333333" style="100" customWidth="1"/>
-    <col min="6" max="6" width="9" style="100"/>
-    <col min="7" max="7" width="29.525" style="100" customWidth="1"/>
-    <col min="8" max="8" width="42.5" style="100" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="100"/>
+    <col min="1" max="1" width="17.1333333333333" style="95" customWidth="1"/>
+    <col min="2" max="2" width="9" style="95"/>
+    <col min="3" max="3" width="24.0333333333333" style="95" customWidth="1"/>
+    <col min="4" max="4" width="4.75833333333333" style="95" customWidth="1"/>
+    <col min="5" max="5" width="17.1333333333333" style="95" customWidth="1"/>
+    <col min="6" max="6" width="9" style="95"/>
+    <col min="7" max="7" width="29.525" style="95" customWidth="1"/>
+    <col min="8" max="8" width="42.5" style="95" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" s="100" customFormat="1" spans="1:8">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="108" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="103" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="100" customFormat="1" spans="1:8">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="100" customFormat="1" ht="27" spans="1:8">
-      <c r="A3" s="110" t="s">
+    <row r="3" ht="27" spans="1:8">
+      <c r="A3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="106" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="100" customFormat="1" ht="40.5" spans="1:8">
-      <c r="A4" s="110" t="s">
+    <row r="4" ht="40.5" spans="1:8">
+      <c r="A4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="111" t="s">
+      <c r="H4" s="106" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="100" customFormat="1" spans="1:8">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="E5" s="110" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="E5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="110"/>
-    </row>
-    <row r="6" s="100" customFormat="1" ht="54" spans="1:8">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="E6" s="110" t="s">
+      <c r="H5" s="105"/>
+    </row>
+    <row r="6" ht="54" spans="1:8">
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="E6" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="106" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="100" customFormat="1" spans="1:8">
-      <c r="A7" s="110" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="110"/>
-    </row>
-    <row r="8" s="100" customFormat="1" ht="27" spans="1:8">
-      <c r="A8" s="110" t="s">
+      <c r="H7" s="105"/>
+    </row>
+    <row r="8" ht="27" spans="1:8">
+      <c r="A8" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="111" t="s">
+      <c r="G8" s="105"/>
+      <c r="H8" s="106" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3918,356 +3399,378 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:C12"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="100" customWidth="1"/>
-    <col min="2" max="2" width="30.6333333333333" style="100" customWidth="1"/>
-    <col min="3" max="3" width="25.6333333333333" style="100" customWidth="1"/>
-    <col min="4" max="4" width="11.1333333333333" style="100" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="100" customWidth="1"/>
-    <col min="6" max="6" width="32.625" style="100" customWidth="1"/>
-    <col min="7" max="7" width="17.8833333333333" style="100" customWidth="1"/>
-    <col min="8" max="8" width="28.25" style="100" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="100"/>
+    <col min="1" max="1" width="15.25" style="95" customWidth="1"/>
+    <col min="2" max="2" width="30.6333333333333" style="95" customWidth="1"/>
+    <col min="3" max="3" width="25.6333333333333" style="95" customWidth="1"/>
+    <col min="4" max="4" width="11.1333333333333" style="95" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="95" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="95" customWidth="1"/>
+    <col min="7" max="7" width="17.8833333333333" style="95" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="95" customWidth="1"/>
+    <col min="9" max="9" width="37" style="95" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A1" s="92" t="s">
+    <row r="1" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A1" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="87" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A2" s="93">
+      <c r="I1" s="87"/>
+    </row>
+    <row r="2" s="95" customFormat="1" ht="37.5" spans="1:9">
+      <c r="A2" s="88">
         <v>1001</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="93">
+      <c r="D2" s="88">
         <v>1</v>
       </c>
-      <c r="E2" s="93">
+      <c r="E2" s="88">
         <v>501</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="88" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A3" s="93">
+      <c r="I2" s="89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" s="95" customFormat="1" ht="112.5" spans="1:9">
+      <c r="A3" s="88">
         <v>1002</v>
       </c>
-      <c r="B3" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="93">
+      <c r="C3" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="88">
         <v>2</v>
       </c>
-      <c r="E3" s="93">
+      <c r="E3" s="88">
         <v>502</v>
       </c>
-      <c r="F3" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="93" t="s">
+      <c r="F3" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="93" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A4" s="102">
+      <c r="H3" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A4" s="97">
         <v>1003</v>
       </c>
-      <c r="B4" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="102">
+      <c r="B4" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="97">
         <v>3</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="88">
         <v>503</v>
       </c>
-      <c r="F4" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="93" t="s">
+      <c r="F4" s="88" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="93">
+      <c r="G4" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="88"/>
+    </row>
+    <row r="5" s="95" customFormat="1" ht="56.25" spans="1:9">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="88">
         <v>516</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A6" s="101"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="88">
+        <v>514</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="93" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A6" s="106"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="93">
-        <v>517</v>
-      </c>
-      <c r="F6" s="93" t="s">
+      <c r="H6" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="88"/>
+    </row>
+    <row r="7" s="95" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A7" s="99">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="99">
+        <v>4</v>
+      </c>
+      <c r="E7" s="88">
+        <v>504</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="88"/>
+    </row>
+    <row r="8" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A8" s="97">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="97">
+        <v>5</v>
+      </c>
+      <c r="E8" s="88">
+        <v>505</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="88"/>
+    </row>
+    <row r="9" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="88">
+        <v>506</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="88"/>
+    </row>
+    <row r="10" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="88">
+        <v>507</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A7" s="104">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="104">
-        <v>4</v>
-      </c>
-      <c r="E7" s="93">
-        <v>504</v>
-      </c>
-      <c r="F7" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="93" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A8" s="102">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="102">
-        <v>5</v>
-      </c>
-      <c r="E8" s="93">
-        <v>505</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="93" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="93">
+      <c r="H10" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="88"/>
+    </row>
+    <row r="11" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="88">
+        <v>508</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="88"/>
+    </row>
+    <row r="12" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="88">
+        <v>6</v>
+      </c>
+      <c r="E12" s="88">
+        <v>509</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A13" s="97">
+        <v>1006</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="97">
+        <v>7</v>
+      </c>
+      <c r="E13" s="88">
         <v>506</v>
       </c>
-      <c r="F9" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="93">
-        <v>507</v>
-      </c>
-      <c r="F10" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="93" t="s">
+      <c r="F13" s="88" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A11" s="104"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="93">
+      <c r="G13" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="88"/>
+    </row>
+    <row r="14" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="88">
         <v>508</v>
       </c>
-      <c r="F11" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="93" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="93">
+      <c r="F14" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="88"/>
+    </row>
+    <row r="15" s="95" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="88">
         <v>6</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E15" s="88">
         <v>509</v>
       </c>
-      <c r="F12" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="93" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A13" s="102">
-        <v>1006</v>
-      </c>
-      <c r="B13" s="102" t="s">
+      <c r="F15" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="G15" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="102">
-        <v>7</v>
-      </c>
-      <c r="E13" s="93">
-        <v>506</v>
-      </c>
-      <c r="F13" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="93">
-        <v>508</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="93" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" s="100" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="93">
-        <v>6</v>
-      </c>
-      <c r="E15" s="93">
-        <v>509</v>
-      </c>
-      <c r="F15" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="93" t="s">
-        <v>75</v>
-      </c>
+      <c r="H15" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4285,6 +3788,7 @@
     <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4302,81 +3806,81 @@
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="29.3833333333333" customWidth="1"/>
-    <col min="3" max="3" width="5.38333333333333" style="95" customWidth="1"/>
+    <col min="3" max="3" width="5.38333333333333" style="90" customWidth="1"/>
     <col min="4" max="4" width="29.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="96">
+      <c r="A2" s="91">
         <v>0</v>
       </c>
-      <c r="B2" s="97" t="s">
-        <v>81</v>
+      <c r="B2" s="92" t="s">
+        <v>84</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:4">
-      <c r="A3" s="96">
+      <c r="A3" s="91">
         <v>1</v>
       </c>
-      <c r="B3" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>84</v>
+      <c r="B3" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="75">
         <v>10</v>
       </c>
-      <c r="B4" s="97" t="s">
-        <v>85</v>
+      <c r="B4" s="92" t="s">
+        <v>88</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="99"/>
+        <v>89</v>
+      </c>
+      <c r="D4" s="94"/>
     </row>
     <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="75">
         <v>100</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="99"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="75">
         <v>200</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="99"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4390,352 +3894,243 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.13333333333333" style="91" customWidth="1"/>
-    <col min="2" max="2" width="41" style="91" customWidth="1"/>
-    <col min="3" max="3" width="21.3833333333333" style="91" customWidth="1"/>
-    <col min="4" max="4" width="25.1333333333333" style="91" customWidth="1"/>
-    <col min="5" max="5" width="36" style="91" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="91"/>
+    <col min="1" max="1" width="9.13333333333333" style="86" customWidth="1"/>
+    <col min="2" max="2" width="41" style="86" customWidth="1"/>
+    <col min="3" max="3" width="21.3833333333333" style="86" customWidth="1"/>
+    <col min="4" max="4" width="25.1333333333333" style="86" customWidth="1"/>
+    <col min="5" max="5" width="36" style="86" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" s="91" customFormat="1" spans="1:5">
-      <c r="A1" s="92" t="s">
+    <row r="1" s="86" customFormat="1" spans="1:5">
+      <c r="A1" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" s="91" customFormat="1" ht="37.5" spans="1:5">
-      <c r="A2" s="93">
+      <c r="E1" s="87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" s="86" customFormat="1" ht="37.5" spans="1:5">
+      <c r="A2" s="88">
         <v>501</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" s="91" customFormat="1" ht="112.5" spans="1:5">
-      <c r="A3" s="93">
+      <c r="E2" s="89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" s="86" customFormat="1" ht="112.5" spans="1:5">
+      <c r="A3" s="88">
         <v>502</v>
       </c>
-      <c r="B3" s="93" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="93" t="s">
+      <c r="B3" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>91</v>
+      <c r="D3" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93">
+      <c r="A4" s="88">
         <v>503</v>
       </c>
-      <c r="B4" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="93" t="s">
+      <c r="B4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="94"/>
+      <c r="C4" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="89"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93">
+      <c r="A5" s="88">
         <v>504</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="94"/>
+      <c r="B5" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="89"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="93">
+      <c r="A6" s="88">
         <v>505</v>
       </c>
-      <c r="B6" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="94"/>
+      <c r="B6" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="93">
+      <c r="A7" s="88">
         <v>506</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="94"/>
+      <c r="B7" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="93">
+      <c r="A8" s="88">
         <v>507</v>
       </c>
-      <c r="B8" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="94"/>
+      <c r="B8" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="89"/>
     </row>
     <row r="9" ht="75" spans="1:5">
-      <c r="A9" s="93">
+      <c r="A9" s="88">
         <v>508</v>
       </c>
-      <c r="B9" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>92</v>
+      <c r="B9" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="93">
+      <c r="A10" s="88">
         <v>509</v>
       </c>
-      <c r="B10" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="94"/>
+      <c r="B10" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="93">
-        <v>511</v>
-      </c>
-      <c r="B11" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="93" t="s">
+      <c r="A11" s="88">
+        <v>513</v>
+      </c>
+      <c r="B11" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="94"/>
+      <c r="C11" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="89"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="93">
-        <v>512</v>
-      </c>
-      <c r="B12" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="93" t="s">
+      <c r="A12" s="88">
+        <v>514</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="94"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="93">
-        <v>513</v>
-      </c>
-      <c r="B13" s="93" t="s">
+      <c r="E12" s="89"/>
+    </row>
+    <row r="13" ht="56.25" spans="1:5">
+      <c r="A13" s="88">
+        <v>516</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="88">
+        <v>529</v>
+      </c>
+      <c r="B14" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="93" t="s">
+      <c r="C14" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="94"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="93">
-        <v>514</v>
-      </c>
-      <c r="B14" s="93" t="s">
+      <c r="D14" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="94"/>
-    </row>
-    <row r="15" ht="56.25" spans="1:5">
-      <c r="A15" s="93">
-        <v>516</v>
-      </c>
-      <c r="B15" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="93">
-        <v>517</v>
-      </c>
-      <c r="B16" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="94"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="93">
-        <v>523</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="94"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="93">
-        <v>524</v>
-      </c>
-      <c r="B18" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="94"/>
-    </row>
-    <row r="19" ht="37.5" spans="1:5">
-      <c r="A19" s="93">
-        <v>525</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" ht="37.5" spans="1:5">
-      <c r="A20" s="93">
-        <v>526</v>
-      </c>
-      <c r="B20" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="93">
-        <v>529</v>
-      </c>
-      <c r="B21" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="94"/>
+      <c r="E14" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4752,7 +4147,7 @@
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -4763,36 +4158,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:3">
-      <c r="A2" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>118</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>121</v>
+      <c r="A3" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4805,17 +4200,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="84.5" customWidth="1"/>
+    <col min="1" max="1" width="85.75" customWidth="1"/>
     <col min="2" max="2" width="54.8916666666667" customWidth="1"/>
     <col min="3" max="3" width="5.95" customWidth="1"/>
     <col min="4" max="4" width="14.325" customWidth="1"/>
@@ -4824,24 +4219,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="77" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B1" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A2" s="78" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -4849,25 +4244,25 @@
       <c r="E2" s="80"/>
     </row>
     <row r="3" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>131</v>
+      <c r="A3" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A4" s="78" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -4876,24 +4271,24 @@
     </row>
     <row r="5" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A5" s="79" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A6" s="78" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -4902,24 +4297,24 @@
     </row>
     <row r="7" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A7" s="79" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A8" s="78" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="79"/>
@@ -4928,24 +4323,24 @@
     </row>
     <row r="9" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A9" s="79" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A10" s="78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="79"/>
       <c r="C10" s="79"/>
@@ -4953,1835 +4348,1267 @@
       <c r="E10" s="80"/>
     </row>
     <row r="11" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A11" s="81" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="81" t="s">
+      <c r="A11" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="B11" s="79" t="s">
         <v>131</v>
       </c>
+      <c r="C11" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A12" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>141</v>
+      <c r="A12" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="80" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A13" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="82" t="s">
+      <c r="A13" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A14" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="79" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="14" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A14" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="82" t="s">
-        <v>141</v>
+      <c r="C14" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A15" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>131</v>
-      </c>
+      <c r="A15" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
     </row>
     <row r="16" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A16" s="79" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A17" s="79" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A18" s="79" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A19" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
+      <c r="A19" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="20" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A20" s="79" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A21" s="79" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E21" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A22" s="79" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B22" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A23" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A24" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A23" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A24" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
+      <c r="B24" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="25" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A25" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="80" t="s">
-        <v>131</v>
-      </c>
+      <c r="A25" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
     </row>
     <row r="26" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A26" s="79" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A27" s="79" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A28" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="82" t="s">
-        <v>131</v>
+      <c r="A28" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="80" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="29" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A29" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
+      <c r="A29" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="80" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="30" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A30" s="79" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A31" s="79" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A32" s="79" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A33" s="79" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A34" s="79" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C34" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A35" s="79" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C35" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A36" s="79" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C36" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A37" s="79" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C37" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A38" s="79" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C38" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E38" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A39" s="79" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C39" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A40" s="79" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E40" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A41" s="79" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C41" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A42" s="79" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B42" s="79" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C42" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E42" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A43" s="79" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C43" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E43" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A44" s="79" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B44" s="79" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C44" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E44" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A45" s="79" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B45" s="79" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C45" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D45" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E45" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A46" s="79" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B46" s="79" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C46" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E46" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A47" s="79" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B47" s="79" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C47" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D47" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E47" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A48" s="79" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B48" s="79" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C48" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A49" s="79" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C49" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E49" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A50" s="79" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B50" s="79" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C50" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E50" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A51" s="79" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B51" s="79" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E51" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A52" s="79" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B52" s="79" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E52" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A53" s="79" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C53" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E53" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A54" s="79" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C54" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D54" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E54" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A55" s="79" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D55" s="79" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E55" s="80" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A56" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="B56" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" s="80" t="s">
-        <v>141</v>
-      </c>
+      <c r="A56" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
     </row>
     <row r="57" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A57" s="79" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="C57" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D57" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E57" s="80" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A58" s="79" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D58" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E58" s="80" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A59" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="B59" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="C59" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="82" t="s">
-        <v>131</v>
+      <c r="A59" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="80" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A60" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="80"/>
+      <c r="A60" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="80" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="61" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A61" s="79" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D61" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A62" s="79" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C62" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D62" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E62" s="80" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A63" s="79" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="C63" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D63" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E63" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A64" s="79" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C64" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D64" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E64" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A65" s="79" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C65" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D65" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E65" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A66" s="79" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B66" s="79" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C66" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D66" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E66" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A67" s="79" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B67" s="79" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C67" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D67" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E67" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A68" s="79" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B68" s="79" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C68" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D68" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E68" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A69" s="79" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B69" s="79" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C69" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D69" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E69" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A70" s="79" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B70" s="79" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C70" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D70" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E70" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A71" s="79" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B71" s="79" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C71" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D71" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E71" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A72" s="79" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B72" s="79" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C72" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D72" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E72" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A73" s="79" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B73" s="79" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C73" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D73" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E73" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A74" s="79" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B74" s="79" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C74" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D74" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E74" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A75" s="79" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C75" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D75" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E75" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" s="76" customFormat="1" ht="18.75" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A76" s="79" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B76" s="79" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C76" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D76" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E76" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A77" s="79" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B77" s="79" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C77" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D77" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E77" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="78" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" s="76" customFormat="1" ht="16" customHeight="1" spans="1:9">
       <c r="A78" s="79" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B78" s="79" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C78" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D78" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E78" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
+      </c>
+      <c r="I78" s="76">
+        <f>SUM(B75)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="79" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A79" s="79" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B79" s="79" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C79" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D79" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E79" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A80" s="79" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B80" s="79" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C80" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D80" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E80" s="80" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A81" s="79" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B81" s="79" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C81" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D81" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E81" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" s="76" customFormat="1" ht="16" customHeight="1" spans="1:9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A82" s="79" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B82" s="79" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C82" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D82" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E82" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="I82" s="76">
-        <f>SUM(B79)</f>
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
       <c r="A83" s="79" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B83" s="79" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C83" s="79" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D83" s="79" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E83" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A84" s="79" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B84" s="79" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C84" s="79" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D84" s="79" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E84" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A85" s="79" t="s">
-        <v>256</v>
-      </c>
-      <c r="B85" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" s="76" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A85" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="79"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="80"/>
+    </row>
+    <row r="86" s="76" customFormat="1" ht="18.75" spans="1:5">
       <c r="A86" s="79" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B86" s="79" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C86" s="79" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D86" s="79" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E86" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="87" s="76" customFormat="1" ht="16" customHeight="1" spans="1:5">
-      <c r="A87" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="B87" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="C87" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A88" s="81" t="s">
-        <v>259</v>
-      </c>
-      <c r="B88" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="C88" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D88" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E88" s="82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A89" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="B89" s="79"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="79"/>
-      <c r="E89" s="80"/>
-    </row>
-    <row r="90" s="76" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A90" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="B90" s="81" t="s">
-        <v>261</v>
-      </c>
-      <c r="C90" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D90" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" s="82" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="4:9">
-      <c r="D91" s="83"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="84"/>
-    </row>
-    <row r="92" ht="27" spans="1:9">
-      <c r="A92" s="84" t="s">
-        <v>262</v>
-      </c>
-      <c r="B92" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="C92" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E92" s="83" t="s">
-        <v>264</v>
-      </c>
-      <c r="F92" s="83"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="83"/>
-      <c r="I92" s="84"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" t="s">
-        <v>265</v>
-      </c>
-      <c r="B93" s="83" t="s">
-        <v>266</v>
-      </c>
-      <c r="C93" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="F93" s="83"/>
-      <c r="G93" s="84"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="84"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" t="s">
-        <v>267</v>
-      </c>
-      <c r="B94" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="C94" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F94" s="83"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="84"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" t="s">
-        <v>270</v>
-      </c>
-      <c r="B95" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="C95" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F95" s="83"/>
-      <c r="G95" s="84"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="84"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" t="s">
-        <v>272</v>
-      </c>
-      <c r="B96" s="83" t="s">
-        <v>273</v>
-      </c>
-      <c r="C96" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E96" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F96" s="83"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="84"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" t="s">
-        <v>274</v>
-      </c>
-      <c r="B97" s="83" t="s">
-        <v>275</v>
-      </c>
-      <c r="C97" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F97" s="83"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="84"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" t="s">
-        <v>276</v>
-      </c>
-      <c r="B98" s="83" t="s">
-        <v>277</v>
-      </c>
-      <c r="C98" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D98" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F98" s="83"/>
-      <c r="G98" s="84"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="84"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
-        <v>278</v>
-      </c>
-      <c r="B99" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="C99" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D99" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F99" s="83"/>
-      <c r="G99" s="84"/>
-      <c r="H99" s="83"/>
-      <c r="I99" s="84"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
-        <v>280</v>
-      </c>
-      <c r="B100" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="C100" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F100" s="83"/>
-      <c r="G100" s="84"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="84"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>282</v>
-      </c>
-      <c r="B101" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="C101" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D101" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F101" s="83"/>
-      <c r="G101" s="84"/>
-      <c r="H101" s="83"/>
-      <c r="I101" s="84"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" t="s">
-        <v>284</v>
-      </c>
-      <c r="B102" s="83" t="s">
-        <v>285</v>
-      </c>
-      <c r="C102" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D102" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F102" s="83"/>
-      <c r="G102" s="84"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="84"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" t="s">
-        <v>286</v>
-      </c>
-      <c r="B103" s="83" t="s">
-        <v>287</v>
-      </c>
-      <c r="C103" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D103" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E103" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F103" s="83"/>
-      <c r="G103" s="84"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="84"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" t="s">
-        <v>288</v>
-      </c>
-      <c r="B104" s="83" t="s">
-        <v>289</v>
-      </c>
-      <c r="C104" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D104" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E104" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F104" s="83"/>
-      <c r="G104" s="84"/>
-      <c r="H104" s="83"/>
-      <c r="I104" s="84"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" t="s">
-        <v>290</v>
-      </c>
-      <c r="B105" s="83" t="s">
-        <v>291</v>
-      </c>
-      <c r="C105" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D105" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E105" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="F105" s="83"/>
-      <c r="G105" s="84"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="84"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" t="s">
-        <v>292</v>
-      </c>
-      <c r="B106" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="C106" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D106" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E106" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="F106" s="83"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="84"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" t="s">
-        <v>295</v>
-      </c>
-      <c r="B107" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="C107" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D107" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E107" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="F107" s="83"/>
-      <c r="G107" s="84"/>
-      <c r="H107" s="83"/>
-      <c r="I107" s="84"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" t="s">
-        <v>297</v>
-      </c>
-      <c r="B108" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="C108" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D108" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E108" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="F108" s="83"/>
-      <c r="G108" s="84"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="84"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" t="s">
-        <v>299</v>
-      </c>
-      <c r="B109" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="C109" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D109" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E109" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="F109" s="83"/>
-      <c r="G109" s="84"/>
-      <c r="H109" s="83"/>
-      <c r="I109" s="84"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
-        <v>301</v>
-      </c>
-      <c r="B110" s="83" t="s">
-        <v>302</v>
-      </c>
-      <c r="C110" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D110" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="F110" s="83"/>
-      <c r="G110" s="84"/>
-      <c r="H110" s="83"/>
-      <c r="I110" s="84"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
-        <v>303</v>
-      </c>
-      <c r="B111" s="83" t="s">
-        <v>304</v>
-      </c>
-      <c r="C111" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D111" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="F111" s="83"/>
-      <c r="G111" s="84"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="84"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" t="s">
-        <v>305</v>
-      </c>
-      <c r="B112" s="83" t="s">
-        <v>306</v>
-      </c>
-      <c r="C112" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D112" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="F112" s="83"/>
-      <c r="G112" s="84"/>
-      <c r="H112" s="83"/>
-      <c r="I112" s="84"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
-        <v>307</v>
-      </c>
-      <c r="B113" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="C113" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D113" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" s="83" t="s">
-        <v>269</v>
-      </c>
-      <c r="F113" s="83"/>
-      <c r="G113" s="84"/>
-      <c r="H113" s="83"/>
-      <c r="I113" s="84"/>
-    </row>
-    <row r="114" ht="24" spans="1:9">
-      <c r="A114" t="s">
-        <v>309</v>
-      </c>
-      <c r="B114" s="83" t="s">
-        <v>310</v>
-      </c>
-      <c r="C114" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D114" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" s="83" t="s">
-        <v>311</v>
-      </c>
-      <c r="F114" s="83"/>
-      <c r="G114" s="84"/>
-      <c r="H114" s="83"/>
-      <c r="I114" s="84"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>312</v>
-      </c>
-      <c r="B115" s="83" t="s">
-        <v>313</v>
-      </c>
-      <c r="C115" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D115" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" s="83" t="s">
-        <v>314</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6812,41 +5639,41 @@
   <sheetData>
     <row r="1" ht="21" spans="1:5">
       <c r="A1" s="74" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:5">
       <c r="A2" s="74" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:5">
       <c r="A3" s="74" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="B3" s="14">
         <v>5</v>
@@ -6863,44 +5690,44 @@
     </row>
     <row r="4" ht="21" spans="1:6">
       <c r="A4" s="74" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" ht="21" spans="1:5">
       <c r="A5" s="74" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:5">
       <c r="A6" s="74" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -6917,22 +5744,22 @@
     </row>
     <row r="7" ht="21" spans="1:5">
       <c r="A7" s="74" t="s">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="75" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:5">
       <c r="A8" s="74" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="B8" s="75">
         <v>0</v>
@@ -6949,7 +5776,7 @@
     </row>
     <row r="9" ht="21" spans="1:5">
       <c r="A9" s="74" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="B9" s="75">
         <v>0</v>
@@ -6992,13 +5819,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>336</v>
+        <v>264</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
@@ -7011,16 +5838,16 @@
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="G2" s="63"/>
     </row>
@@ -7029,23 +5856,23 @@
         <v>4000</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="67"/>
       <c r="F3" s="64"/>
       <c r="G3" s="67" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="64"/>
       <c r="B4" s="68"/>
       <c r="C4" s="66" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="67"/>
@@ -7057,16 +5884,16 @@
         <v>4001</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="67"/>
       <c r="F5" s="64"/>
       <c r="G5" s="67" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7074,23 +5901,23 @@
         <v>4002</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>347</v>
+        <v>275</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="67"/>
       <c r="F6" s="64"/>
       <c r="G6" s="69" t="s">
-        <v>347</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71"/>
       <c r="B7" s="68"/>
       <c r="C7" s="66" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="67"/>
@@ -7101,10 +5928,10 @@
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="66" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
@@ -7114,7 +5941,7 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="66" t="s">
-        <v>352</v>
+        <v>280</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -7126,13 +5953,13 @@
         <v>4003</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -7142,10 +5969,10 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="66" t="s">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -7156,10 +5983,10 @@
         <v>4004</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -7170,7 +5997,7 @@
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="66" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -7182,10 +6009,10 @@
         <v>4005</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -7196,7 +6023,7 @@
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="66" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -7208,10 +6035,10 @@
         <v>4006</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>363</v>
+        <v>291</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -7222,7 +6049,7 @@
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="66" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -7234,10 +6061,10 @@
         <v>4007</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -7248,7 +6075,7 @@
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="66" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -7260,10 +6087,10 @@
         <v>4008</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
@@ -7274,7 +6101,7 @@
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="66" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>
@@ -7339,27 +6166,27 @@
   <sheetData>
     <row r="1" ht="21.75" spans="4:4">
       <c r="D1" s="2" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="4:9">
       <c r="D2" s="3" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="4:9">
@@ -7367,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -7376,10 +6203,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="4:9">
@@ -7388,7 +6215,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="I4" s="41"/>
     </row>
@@ -7398,7 +6225,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="I5" s="41"/>
     </row>
@@ -7408,7 +6235,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -7418,7 +6245,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -7427,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>377</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -7436,16 +6263,16 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M8" s="44"/>
     </row>
@@ -7455,17 +6282,17 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="I9" s="41"/>
       <c r="K9" s="14">
         <v>1</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:13">
@@ -7474,13 +6301,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
       <c r="I10" s="41"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="45" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:13">
@@ -7489,13 +6316,13 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="I11" s="42"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="45" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:13">
@@ -7503,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="F12" s="12">
         <v>3</v>
@@ -7512,15 +6339,15 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="45" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:13">
@@ -7528,7 +6355,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
@@ -7537,15 +6364,15 @@
         <v>4</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="46" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:13">
@@ -7556,19 +6383,19 @@
         <v>5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="K14" s="14">
         <v>2</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:13">
@@ -7576,7 +6403,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="F15" s="15">
         <v>5</v>
@@ -7585,15 +6412,15 @@
         <v>4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="45" t="s">
-        <v>379</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:13">
@@ -7604,15 +6431,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="45" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:13">
@@ -7623,15 +6450,15 @@
         <v>6</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="46" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:13">
@@ -7639,7 +6466,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="F18" s="15">
         <v>6</v>
@@ -7648,19 +6475,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="K18" s="11">
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:13">
@@ -7668,7 +6495,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -7678,10 +6505,10 @@
         <v>4</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:9">
@@ -7689,7 +6516,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="F20" s="15">
         <v>8</v>
@@ -7698,10 +6525,10 @@
         <v>8</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>397</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:9">
@@ -7709,7 +6536,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -7721,7 +6548,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="F22" s="16">
         <v>10</v>
@@ -7730,10 +6557,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>400</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:9">
@@ -7760,16 +6587,16 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="K25" s="47" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="L25" s="48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>403</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" ht="32.25" spans="4:14">
@@ -7780,40 +6607,40 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="K26" s="49" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="50" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:14">
       <c r="D27" s="11"/>
       <c r="E27" s="16" t="s">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="K27" s="49" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>407</v>
+        <v>335</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="50" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:9">
       <c r="D28" s="23"/>
       <c r="E28" s="16" t="s">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -7823,45 +6650,45 @@
     <row r="37" ht="14.25"/>
     <row r="38" ht="16.5" spans="4:10">
       <c r="D38" s="24" t="s">
-        <v>408</v>
+        <v>336</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>409</v>
+        <v>337</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>410</v>
+        <v>338</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>411</v>
+        <v>339</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>409</v>
+        <v>337</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:10">
       <c r="D39" s="27" t="s">
-        <v>413</v>
+        <v>341</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>414</v>
+        <v>342</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>416</v>
+        <v>344</v>
       </c>
       <c r="H39" s="11">
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>417</v>
+        <v>345</v>
       </c>
       <c r="J39" s="12">
         <v>2</v>
@@ -7871,14 +6698,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
       <c r="F40" s="29" t="s">
-        <v>418</v>
+        <v>346</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="11">
         <v>2</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="J40" s="12">
         <v>2</v>
@@ -7888,7 +6715,7 @@
       <c r="D41" s="30"/>
       <c r="E41" s="31"/>
       <c r="F41" s="32" t="s">
-        <v>420</v>
+        <v>348</v>
       </c>
       <c r="G41" s="31"/>
     </row>
@@ -7896,7 +6723,7 @@
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="33" t="s">
-        <v>421</v>
+        <v>349</v>
       </c>
       <c r="G42" s="31"/>
     </row>
@@ -7904,7 +6731,7 @@
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
       <c r="F43" s="33" t="s">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="G43" s="31"/>
     </row>
@@ -7912,7 +6739,7 @@
       <c r="D44" s="30"/>
       <c r="E44" s="31"/>
       <c r="F44" s="33" t="s">
-        <v>423</v>
+        <v>351</v>
       </c>
       <c r="G44" s="31"/>
     </row>
@@ -7920,7 +6747,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="31"/>
       <c r="F45" s="33" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -7928,7 +6755,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="31"/>
       <c r="F46" s="33" t="s">
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="G46" s="31"/>
     </row>
@@ -7936,7 +6763,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="33" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="G47" s="31"/>
     </row>
@@ -7944,7 +6771,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
       <c r="F48" s="33" t="s">
-        <v>427</v>
+        <v>355</v>
       </c>
       <c r="G48" s="31"/>
     </row>
@@ -7952,7 +6779,7 @@
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
       <c r="F49" s="33" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="G49" s="31"/>
     </row>
@@ -7960,7 +6787,7 @@
       <c r="D50" s="30"/>
       <c r="E50" s="31"/>
       <c r="F50" s="33" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="G50" s="31"/>
     </row>
@@ -7968,7 +6795,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="31"/>
       <c r="F51" s="33" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="G51" s="31"/>
     </row>
@@ -7976,23 +6803,23 @@
       <c r="D52" s="34"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="G52" s="35"/>
     </row>
     <row r="53" ht="21" spans="4:4">
       <c r="D53" s="37" t="s">
-        <v>432</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="4:4">
       <c r="D54" s="38" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="4:4">
       <c r="D55" s="39" t="s">
-        <v>433</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/equipment_cyg/product/zhong_che_zhu_zhou/second_floor/second_floor_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_zhu_zhou/second_floor/second_floor_manual.xlsx
@@ -3210,7 +3210,7 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -3404,7 +3404,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3897,7 +3897,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -4147,7 +4147,7 @@
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
